--- a/data/Current_Comparison_SVM_RF/edger_all_results.xlsx
+++ b/data/Current_Comparison_SVM_RF/edger_all_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,30 +1307,30 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
-        <v>12419</v>
+        <v>3252</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ENSG00000203875</t>
+          <t>ENSG00000112667</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.834358918532646</v>
+        <v>0.665161162172441</v>
       </c>
       <c r="E12" t="n">
-        <v>5.79159643525616</v>
+        <v>3.04059374947091</v>
       </c>
       <c r="F12" t="n">
-        <v>22.3663906393201</v>
+        <v>22.7012466722662</v>
       </c>
       <c r="G12" t="n">
-        <v>2.25282113182528e-06</v>
+        <v>1.89245050424226e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009226759344853999</v>
+        <v>0.0008750591528958001</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1338,42 +1338,42 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>85660950</v>
+        <v>43225629</v>
       </c>
       <c r="K12" t="n">
-        <v>85678736</v>
+        <v>43229484</v>
       </c>
       <c r="L12" t="n">
-        <v>0.408950357002305</v>
+        <v>0.553163900414938</v>
       </c>
       <c r="M12" t="n">
-        <v>0.415148219013744</v>
+        <v>0.636308962271762</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.4036679194201364</t>
+          <t>0.6107652845667765</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>17787</v>
+        <v>3856</v>
       </c>
       <c r="P12" t="n">
-        <v>4108</v>
+        <v>1357</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>processed_transcript</t>
+          <t>protein_coding</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>40.9</v>
+        <v>55.32</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>SNHG5</t>
+          <t>DNPH1</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1384,73 +1384,73 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>13478</v>
+        <v>12419</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ENSG00000225178</t>
+          <t>ENSG00000203875</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.838469044645785</v>
+        <v>0.834358918532646</v>
       </c>
       <c r="E13" t="n">
-        <v>4.51791206127121</v>
+        <v>5.79159643525616</v>
       </c>
       <c r="F13" t="n">
-        <v>22.4084851610019</v>
+        <v>22.3663906393201</v>
       </c>
       <c r="G13" t="n">
-        <v>2.20398155908948e-06</v>
+        <v>2.25282113182528e-06</v>
       </c>
       <c r="H13" t="n">
         <v>0.0009226759344853999</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>chr19</t>
+          <t>chr6</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>23827162</v>
+        <v>85660950</v>
       </c>
       <c r="K13" t="n">
-        <v>23828049</v>
+        <v>85678736</v>
       </c>
       <c r="L13" t="n">
-        <v>0.523648648648649</v>
+        <v>0.408950357002305</v>
       </c>
       <c r="M13" t="n">
-        <v>0.523648648648649</v>
+        <v>0.415148219013744</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.4036679194201364</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>888</v>
+        <v>17787</v>
       </c>
       <c r="P13" t="n">
-        <v>887</v>
+        <v>4108</v>
       </c>
       <c r="Q13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>processed_pseudogene</t>
+          <t>processed_transcript</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>52.36</v>
+        <v>40.9</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>RPSAP58</t>
+          <t>SNHG5</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1461,27 +1461,27 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>14116</v>
+        <v>13478</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ENSG00000233493</t>
+          <t>ENSG00000225178</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.13176836857694</v>
+        <v>0.838469044645785</v>
       </c>
       <c r="E14" t="n">
-        <v>0.207854518891322</v>
+        <v>4.51791206127121</v>
       </c>
       <c r="F14" t="n">
-        <v>22.3956752583167</v>
+        <v>22.4084851610019</v>
       </c>
       <c r="G14" t="n">
-        <v>2.21873056081145e-06</v>
+        <v>2.20398155908948e-06</v>
       </c>
       <c r="H14" t="n">
         <v>0.0009226759344853999</v>
@@ -1492,16 +1492,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>55379245</v>
+        <v>23827162</v>
       </c>
       <c r="K14" t="n">
-        <v>55384598</v>
+        <v>23828049</v>
       </c>
       <c r="L14" t="n">
-        <v>0.577512140455734</v>
+        <v>0.523648648648649</v>
       </c>
       <c r="M14" t="n">
-        <v>0.737137632422933</v>
+        <v>0.523648648648649</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1509,25 +1509,25 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>5354</v>
+        <v>888</v>
       </c>
       <c r="P14" t="n">
-        <v>998</v>
+        <v>887</v>
       </c>
       <c r="Q14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>protein_coding</t>
+          <t>processed_pseudogene</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>57.75</v>
+        <v>52.36</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>TMEM238</t>
+          <t>RPSAP58</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1538,30 +1538,30 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>99</v>
+        <v>14116</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ENSG00000006015</t>
+          <t>ENSG00000233493</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.65796439959208</v>
+        <v>1.13176836857694</v>
       </c>
       <c r="E15" t="n">
-        <v>4.90309015365238</v>
+        <v>0.207854518891322</v>
       </c>
       <c r="F15" t="n">
-        <v>22.1385656215532</v>
+        <v>22.3956752583167</v>
       </c>
       <c r="G15" t="n">
-        <v>2.53662307419771e-06</v>
+        <v>2.21873056081145e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009689348703635999</v>
+        <v>0.0009226759344853999</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1569,27 +1569,27 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>18588685</v>
+        <v>55379245</v>
       </c>
       <c r="K15" t="n">
-        <v>18592336</v>
+        <v>55384598</v>
       </c>
       <c r="L15" t="n">
-        <v>0.602409638554217</v>
+        <v>0.577512140455734</v>
       </c>
       <c r="M15" t="n">
-        <v>0.596380831556675</v>
+        <v>0.737137632422933</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.5940195316619243</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>3652</v>
+        <v>5354</v>
       </c>
       <c r="P15" t="n">
-        <v>3367</v>
+        <v>998</v>
       </c>
       <c r="Q15" t="n">
         <v>8</v>
@@ -1600,11 +1600,11 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>60.24</v>
+        <v>57.75</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>C19orf60</t>
+          <t>TMEM238</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1615,58 +1615,58 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>2233</v>
+        <v>99</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ENSG00000103254</t>
+          <t>ENSG00000006015</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.866132555425088</v>
+        <v>0.65796439959208</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0210440248823</v>
+        <v>4.90309015365238</v>
       </c>
       <c r="F16" t="n">
-        <v>21.8013669964872</v>
+        <v>22.1385656215532</v>
       </c>
       <c r="G16" t="n">
-        <v>3.02384616054095e-06</v>
+        <v>2.53662307419771e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001106916685143</v>
+        <v>0.0009689348703635999</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>chr16</t>
+          <t>chr19</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>720581</v>
+        <v>18588685</v>
       </c>
       <c r="K16" t="n">
-        <v>722601</v>
+        <v>18592336</v>
       </c>
       <c r="L16" t="n">
-        <v>0.719445818901534</v>
+        <v>0.602409638554217</v>
       </c>
       <c r="M16" t="n">
-        <v>0.720234183173457</v>
+        <v>0.596380831556675</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.7431879111367227</t>
+          <t>0.5940195316619243</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2021</v>
+        <v>3652</v>
       </c>
       <c r="P16" t="n">
-        <v>1921</v>
+        <v>3367</v>
       </c>
       <c r="Q16" t="n">
         <v>8</v>
@@ -1677,11 +1677,11 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>71.94</v>
+        <v>60.24</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>FAM173A</t>
+          <t>C19orf60</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1692,58 +1692,58 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>10192</v>
+        <v>2233</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ENSG00000175602</t>
+          <t>ENSG00000103254</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.755413593749692</v>
+        <v>0.866132555425088</v>
       </c>
       <c r="E17" t="n">
-        <v>4.71741508932044</v>
+        <v>3.0210440248823</v>
       </c>
       <c r="F17" t="n">
-        <v>20.6240232154293</v>
+        <v>21.8013669964872</v>
       </c>
       <c r="G17" t="n">
-        <v>5.58903779955668e-06</v>
+        <v>3.02384616054095e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0018049595349168</v>
+        <v>0.001106916685143</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>chr11</t>
+          <t>chr16</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>65890112</v>
+        <v>720581</v>
       </c>
       <c r="K17" t="n">
-        <v>65891635</v>
+        <v>722601</v>
       </c>
       <c r="L17" t="n">
-        <v>0.676509186351706</v>
+        <v>0.719445818901534</v>
       </c>
       <c r="M17" t="n">
-        <v>0.676509186351706</v>
+        <v>0.720234183173457</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.7431879111367227</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>1524</v>
+        <v>2021</v>
       </c>
       <c r="P17" t="n">
-        <v>1523</v>
+        <v>1921</v>
       </c>
       <c r="Q17" t="n">
         <v>8</v>
@@ -1754,11 +1754,11 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>67.65000000000001</v>
+        <v>71.94</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>CCDC85B</t>
+          <t>FAM173A</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -1769,58 +1769,58 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>9082</v>
+        <v>10192</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ENSG00000167700</t>
+          <t>ENSG00000175602</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.696995159397738</v>
+        <v>0.755413593749692</v>
       </c>
       <c r="E18" t="n">
-        <v>2.20612754632792</v>
+        <v>4.71741508932044</v>
       </c>
       <c r="F18" t="n">
-        <v>19.7765966369862</v>
+        <v>20.6240232154293</v>
       </c>
       <c r="G18" t="n">
-        <v>8.70419607888752e-06</v>
+        <v>5.58903779955668e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0022827079000318</v>
+        <v>0.0018049595349168</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>chr8</t>
+          <t>chr11</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>144509074</v>
+        <v>65890112</v>
       </c>
       <c r="K18" t="n">
-        <v>144511213</v>
+        <v>65891635</v>
       </c>
       <c r="L18" t="n">
-        <v>0.669626168224299</v>
+        <v>0.676509186351706</v>
       </c>
       <c r="M18" t="n">
-        <v>0.674745240504604</v>
+        <v>0.676509186351706</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.6365906671881698</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2140</v>
+        <v>1524</v>
       </c>
       <c r="P18" t="n">
-        <v>1820</v>
+        <v>1523</v>
       </c>
       <c r="Q18" t="n">
         <v>8</v>
@@ -1831,11 +1831,11 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>66.95999999999999</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>MFSD3</t>
+          <t>CCDC85B</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2924,47 +2924,47 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="B33" t="n">
-        <v>14604</v>
+        <v>17114</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ENSG00000240877</t>
+          <t>ENSG00000278771</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.03699566925888</v>
+        <v>0.9746202889183671</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.47902879476826</v>
+        <v>-1.03918535967369</v>
       </c>
       <c r="F33" t="n">
-        <v>11.6602611341465</v>
+        <v>11.2653831655142</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0006384937784942001</v>
+        <v>0.0007896587905560001</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0214511934644784</v>
+        <v>0.0238222271027048</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>chr7</t>
+          <t>chr14</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>149125690</v>
+        <v>49853616</v>
       </c>
       <c r="K33" t="n">
-        <v>149125986</v>
+        <v>49853914</v>
       </c>
       <c r="L33" t="n">
-        <v>0.673400673400673</v>
+        <v>0.622073578595318</v>
       </c>
       <c r="M33" t="n">
-        <v>0.673400673400673</v>
+        <v>0.622073578595318</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P33" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q33" t="n">
         <v>8</v>
@@ -2986,11 +2986,11 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>67.34</v>
+        <v>62.21</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>RN7SL521P</t>
+          <t>Metazoa_SRP</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -3001,47 +3001,47 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>582</v>
+        <v>629</v>
       </c>
       <c r="B34" t="n">
-        <v>17114</v>
+        <v>13320</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ENSG00000278771</t>
+          <t>ENSG00000222020</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9746202889183671</v>
+        <v>0.735319206604899</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.03918535967369</v>
+        <v>-0.344014431108881</v>
       </c>
       <c r="F34" t="n">
-        <v>11.2653831655142</v>
+        <v>11.0319010178987</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0007896587905560001</v>
+        <v>0.0008955726176594</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0238222271027048</v>
+        <v>0.0251339207499893</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>chr14</t>
+          <t>chr2</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>49853616</v>
+        <v>239401436</v>
       </c>
       <c r="K34" t="n">
-        <v>49853914</v>
+        <v>239402364</v>
       </c>
       <c r="L34" t="n">
-        <v>0.622073578595318</v>
+        <v>0.640473627556512</v>
       </c>
       <c r="M34" t="n">
-        <v>0.622073578595318</v>
+        <v>0.621387151105681</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -3049,25 +3049,25 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>299</v>
+        <v>929</v>
       </c>
       <c r="P34" t="n">
-        <v>298</v>
+        <v>610</v>
       </c>
       <c r="Q34" t="n">
         <v>8</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>misc_RNA</t>
+          <t>antisense</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>62.21</v>
+        <v>64.05</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Metazoa_SRP</t>
+          <t>AC062017.1</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -3078,73 +3078,73 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>629</v>
+        <v>757</v>
       </c>
       <c r="B35" t="n">
-        <v>13320</v>
+        <v>14013</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ENSG00000222020</t>
+          <t>ENSG00000232229</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.735319206604899</v>
+        <v>0.65975586898455</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.344014431108881</v>
+        <v>0.308317323845368</v>
       </c>
       <c r="F35" t="n">
-        <v>11.0319010178987</v>
+        <v>10.3372627335632</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0008955726176594</v>
+        <v>0.0013037120456346</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0251339207499893</v>
+        <v>0.0301414794129547</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>chr2</t>
+          <t>chr10</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>239401436</v>
+        <v>89829510</v>
       </c>
       <c r="K35" t="n">
-        <v>239402364</v>
+        <v>89840861</v>
       </c>
       <c r="L35" t="n">
-        <v>0.640473627556512</v>
+        <v>0.4211592670895</v>
       </c>
       <c r="M35" t="n">
-        <v>0.621387151105681</v>
+        <v>0.475926751966099</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.3697525206232814</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>929</v>
+        <v>11352</v>
       </c>
       <c r="P35" t="n">
-        <v>610</v>
+        <v>4268</v>
       </c>
       <c r="Q35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>antisense</t>
+          <t>lincRNA</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>64.05</v>
+        <v>42.12</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>AC062017.1</t>
+          <t>LINC00865</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -3155,73 +3155,73 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>757</v>
+        <v>837</v>
       </c>
       <c r="B36" t="n">
-        <v>14013</v>
+        <v>16006</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ENSG00000232229</t>
+          <t>ENSG00000265393</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.65975586898455</v>
+        <v>0.74580046227168</v>
       </c>
       <c r="E36" t="n">
-        <v>0.308317323845368</v>
+        <v>-0.809071978616967</v>
       </c>
       <c r="F36" t="n">
-        <v>10.3372627335632</v>
+        <v>9.94761168040201</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0013037120456346</v>
+        <v>0.0016105821240979</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0301414794129547</v>
+        <v>0.0336498674227401</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>chr10</t>
+          <t>chr8</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>89829510</v>
+        <v>144512567</v>
       </c>
       <c r="K36" t="n">
-        <v>89840861</v>
+        <v>144513672</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4211592670895</v>
+        <v>0.660940325497288</v>
       </c>
       <c r="M36" t="n">
-        <v>0.475926751966099</v>
+        <v>0.636249105028364</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0.3697525206232814</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>11352</v>
+        <v>1106</v>
       </c>
       <c r="P36" t="n">
-        <v>4268</v>
+        <v>336</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>lincRNA</t>
+          <t>antisense</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>42.12</v>
+        <v>66.09</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>LINC00865</t>
+          <t>CTD-2517M22.17</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -3232,47 +3232,47 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="B37" t="n">
-        <v>16006</v>
+        <v>16592</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ENSG00000265393</t>
+          <t>ENSG00000272677</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.74580046227168</v>
+        <v>0.897704223254567</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.809071978616967</v>
+        <v>-0.518389187091951</v>
       </c>
       <c r="F37" t="n">
-        <v>9.94761168040201</v>
+        <v>9.875360882025181</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0016105821240979</v>
+        <v>0.0016750673946335</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0336498674227401</v>
+        <v>0.0343828466644754</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>chr8</t>
+          <t>chr4</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>144512567</v>
+        <v>82374301</v>
       </c>
       <c r="K37" t="n">
-        <v>144513672</v>
+        <v>82384027</v>
       </c>
       <c r="L37" t="n">
-        <v>0.660940325497288</v>
+        <v>0.451937904801069</v>
       </c>
       <c r="M37" t="n">
-        <v>0.636249105028364</v>
+        <v>0.512165854542407</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>1106</v>
+        <v>9727</v>
       </c>
       <c r="P37" t="n">
-        <v>336</v>
+        <v>904</v>
       </c>
       <c r="Q37" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3294,11 +3294,11 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>66.09</v>
+        <v>45.19</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>CTD-2517M22.17</t>
+          <t>RP11-127B20.3</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -3309,47 +3309,47 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B38" t="n">
-        <v>16592</v>
+        <v>16743</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ENSG00000272677</t>
+          <t>ENSG00000273599</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.897704223254567</v>
+        <v>0.7418796493361151</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.518389187091951</v>
+        <v>-0.621865963139422</v>
       </c>
       <c r="F38" t="n">
-        <v>9.875360882025181</v>
+        <v>9.855504924806519</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0016750673946335</v>
+        <v>0.0016932431925321</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0343828466644754</v>
+        <v>0.0345551406921985</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>chr4</t>
+          <t>chr10</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>82374301</v>
+        <v>124996064</v>
       </c>
       <c r="K38" t="n">
-        <v>82384027</v>
+        <v>125001491</v>
       </c>
       <c r="L38" t="n">
-        <v>0.451937904801069</v>
+        <v>0.590456890198968</v>
       </c>
       <c r="M38" t="n">
-        <v>0.512165854542407</v>
+        <v>0.590456890198968</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>9727</v>
+        <v>5428</v>
       </c>
       <c r="P38" t="n">
-        <v>904</v>
+        <v>5427</v>
       </c>
       <c r="Q38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3371,11 +3371,11 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>45.19</v>
+        <v>59.05</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>RP11-127B20.3</t>
+          <t>RP11-59C5.3</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -3386,47 +3386,47 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>857</v>
+        <v>973</v>
       </c>
       <c r="B39" t="n">
-        <v>16743</v>
+        <v>13949</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ENSG00000273599</t>
+          <t>ENSG00000231351</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.7418796493361151</v>
+        <v>0.624002573290166</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.621865963139422</v>
+        <v>-0.514447819821216</v>
       </c>
       <c r="F39" t="n">
-        <v>9.855504924806519</v>
+        <v>9.37297619230087</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0016932431925321</v>
+        <v>0.0022020769224013</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0345551406921985</v>
+        <v>0.0396666594537395</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>chr10</t>
+          <t>chr2</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>124996064</v>
+        <v>86930250</v>
       </c>
       <c r="K39" t="n">
-        <v>125001491</v>
+        <v>86930754</v>
       </c>
       <c r="L39" t="n">
-        <v>0.590456890198968</v>
+        <v>0.61980198019802</v>
       </c>
       <c r="M39" t="n">
-        <v>0.590456890198968</v>
+        <v>0.61980198019802</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3434,25 +3434,25 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>5428</v>
+        <v>505</v>
       </c>
       <c r="P39" t="n">
-        <v>5427</v>
+        <v>504</v>
       </c>
       <c r="Q39" t="n">
         <v>8</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>antisense</t>
+          <t>processed_pseudogene</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>59.05</v>
+        <v>61.98</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>RP11-59C5.3</t>
+          <t>AC111200.7</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -3463,47 +3463,47 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="B40" t="n">
-        <v>13949</v>
+        <v>14438</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ENSG00000231351</t>
+          <t>ENSG00000237842</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.624002573290166</v>
+        <v>-1.22425929862775</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.514447819821216</v>
+        <v>-1.66740916761039</v>
       </c>
       <c r="F40" t="n">
-        <v>9.37297619230087</v>
+        <v>9.30999675201315</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0022020769224013</v>
+        <v>0.0022790688611969</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0396666594537395</v>
+        <v>0.0402063443374411</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>chr2</t>
+          <t>chr1</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>86930250</v>
+        <v>157059232</v>
       </c>
       <c r="K40" t="n">
-        <v>86930754</v>
+        <v>157060762</v>
       </c>
       <c r="L40" t="n">
-        <v>0.61980198019802</v>
+        <v>0.441541476159373</v>
       </c>
       <c r="M40" t="n">
-        <v>0.61980198019802</v>
+        <v>0.441541476159373</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>505</v>
+        <v>1531</v>
       </c>
       <c r="P40" t="n">
-        <v>504</v>
+        <v>1530</v>
       </c>
       <c r="Q40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3525,62 +3525,62 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>61.98</v>
+        <v>44.15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>AC111200.7</t>
+          <t>RP11-110J1.2</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>down</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>992</v>
+        <v>1017</v>
       </c>
       <c r="B41" t="n">
-        <v>14438</v>
+        <v>16512</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ENSG00000237842</t>
+          <t>ENSG00000272256</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-1.22425929862775</v>
+        <v>0.813850435211313</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.66740916761039</v>
+        <v>-1.12538352356883</v>
       </c>
       <c r="F41" t="n">
-        <v>9.30999675201315</v>
+        <v>9.227665392489479</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0022790688611969</v>
+        <v>0.0023838541047374</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0402063443374411</v>
+        <v>0.0410357048965418</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>chr1</t>
+          <t>chr8</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>157059232</v>
+        <v>30082758</v>
       </c>
       <c r="K41" t="n">
-        <v>157060762</v>
+        <v>30083467</v>
       </c>
       <c r="L41" t="n">
-        <v>0.441541476159373</v>
+        <v>0.684507042253521</v>
       </c>
       <c r="M41" t="n">
-        <v>0.441541476159373</v>
+        <v>0.684507042253521</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3588,105 +3588,28 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1531</v>
+        <v>710</v>
       </c>
       <c r="P41" t="n">
-        <v>1530</v>
+        <v>709</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>processed_pseudogene</t>
+          <t>antisense</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>44.15</v>
+        <v>68.45</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>RP11-110J1.2</t>
+          <t>RP11-489E7.4</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B42" t="n">
-        <v>16512</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>ENSG00000272256</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.813850435211313</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-1.12538352356883</v>
-      </c>
-      <c r="F42" t="n">
-        <v>9.227665392489479</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.0023838541047374</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0410357048965418</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>chr8</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>30082758</v>
-      </c>
-      <c r="K42" t="n">
-        <v>30083467</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.684507042253521</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.684507042253521</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>710</v>
-      </c>
-      <c r="P42" t="n">
-        <v>709</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>8</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>antisense</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
-        <v>68.45</v>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>RP11-489E7.4</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
         <is>
           <t>up</t>
         </is>
